--- a/spec_cal/build/lib/cal_star/refdata/starlists/Massey1998/Massey1998.xlsx
+++ b/spec_cal/build/lib/cal_star/refdata/starlists/Massey1998/Massey1998.xlsx
@@ -1,48 +1,613 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="18600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>RA2(J2000)</t>
+  </si>
+  <si>
+    <t>DEC(J2000)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>(B-V)</t>
+  </si>
+  <si>
+    <t>m5556</t>
+  </si>
+  <si>
+    <t>PG 0205+134</t>
+  </si>
+  <si>
+    <t>+13:36:31</t>
+  </si>
+  <si>
+    <t>sdOB</t>
+  </si>
+  <si>
+    <t>(-0.05)</t>
+  </si>
+  <si>
+    <t>PG 0216+032</t>
+  </si>
+  <si>
+    <t>+03:26:54</t>
+  </si>
+  <si>
+    <t>sdOC</t>
+  </si>
+  <si>
+    <t>(-0.25)</t>
+  </si>
+  <si>
+    <t>PG 0310+149</t>
+  </si>
+  <si>
+    <t>+15:06:24</t>
+  </si>
+  <si>
+    <t>sdO</t>
+  </si>
+  <si>
+    <t>(-0.07)</t>
+  </si>
+  <si>
+    <t>HZ 14</t>
+  </si>
+  <si>
+    <t>+10:59:41</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>G 191B2B</t>
+  </si>
+  <si>
+    <t>+52:49:56</t>
+  </si>
+  <si>
+    <t>dAwk</t>
+  </si>
+  <si>
+    <t>Hiltner 600</t>
+  </si>
+  <si>
+    <t>+02:08:14</t>
+  </si>
+  <si>
+    <t>B1V</t>
+  </si>
+  <si>
+    <t>PG 0823+546</t>
+  </si>
+  <si>
+    <t>+54:28:06</t>
+  </si>
+  <si>
+    <t>PG 0846+249</t>
+  </si>
+  <si>
+    <t>+24:45:16</t>
+  </si>
+  <si>
+    <t>DA1</t>
+  </si>
+  <si>
+    <t>PG 0934+554</t>
+  </si>
+  <si>
+    <t>+55:05:43</t>
+  </si>
+  <si>
+    <t>PG 0939+262</t>
+  </si>
+  <si>
+    <t>+26:00:58</t>
+  </si>
+  <si>
+    <t>(-0.28)</t>
+  </si>
+  <si>
+    <t>Feige 34</t>
+  </si>
+  <si>
+    <t>+43:06:11</t>
+  </si>
+  <si>
+    <t>PG 1121+145</t>
+  </si>
+  <si>
+    <t>+14:13:49</t>
+  </si>
+  <si>
+    <t>GD 140</t>
+  </si>
+  <si>
+    <t>+29:47:51</t>
+  </si>
+  <si>
+    <t>DA2</t>
+  </si>
+  <si>
+    <t>EG 81</t>
+  </si>
+  <si>
+    <t>+14:10:21</t>
+  </si>
+  <si>
+    <t>Feige 66</t>
+  </si>
+  <si>
+    <t>+25:04:01</t>
+  </si>
+  <si>
+    <t>Feige 67</t>
+  </si>
+  <si>
+    <t>+17:30:58</t>
+  </si>
+  <si>
+    <t>HZ 44</t>
+  </si>
+  <si>
+    <t>+36:08:01</t>
+  </si>
+  <si>
+    <t>PG 1545+035</t>
+  </si>
+  <si>
+    <t>+03:22:54</t>
+  </si>
+  <si>
+    <t>PG 1708+602</t>
+  </si>
+  <si>
+    <t>+60:10:11</t>
+  </si>
+  <si>
+    <t>HD 192281</t>
+  </si>
+  <si>
+    <t>+40:16:06</t>
+  </si>
+  <si>
+    <t>O5f</t>
+  </si>
+  <si>
+    <t>Cyg OB2 No.9</t>
+  </si>
+  <si>
+    <t>+41:15:08</t>
+  </si>
+  <si>
+    <t>O5If</t>
+  </si>
+  <si>
+    <t>Wolf 1346</t>
+  </si>
+  <si>
+    <t>+25:03:53</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>BD +28 4211</t>
+  </si>
+  <si>
+    <t>+28:51:53</t>
+  </si>
+  <si>
+    <t>sdOp</t>
+  </si>
+  <si>
+    <t>HD 217086</t>
+  </si>
+  <si>
+    <t>+62:43:38</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>Feige 110</t>
+  </si>
+  <si>
+    <t>-05:09:56</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,21 +615,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1236,664 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.0889293981481482</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-14.73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>14.87</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.0967476851851852</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-14.56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3">
+        <v>14.79</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.134456018518519</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-15.5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3">
+        <v>15.63</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.19515625</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.212159722222222</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-0.32</v>
+      </c>
+      <c r="G6" s="3">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.281405092592593</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10.45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.351972222222222</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.367415509259259</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.401619212962963</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12.16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.404759259259259</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-14.66</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.444177083333333</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11.23</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.475184027777778</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>16.63</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-0.22</v>
+      </c>
+      <c r="G13" s="3">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.48408912037037</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="G14" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.484337962962963</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13.21</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="G15" s="3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.525966435185185</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.529038194444444</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11.82</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-0.32</v>
+      </c>
+      <c r="G17" s="3">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.558049768518519</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11.68</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.29</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.658614583333333</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.714767361111111</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-13.7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.842050925925926</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.856375</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.857202546296296</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11.54</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-0.07</v>
+      </c>
+      <c r="G23" s="3">
+        <v>11.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.910546296296296</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10.53</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-0.34</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.956101851851852</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.972203703703704</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-0.32</v>
+      </c>
+      <c r="G26" s="3">
+        <v>11.88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>